--- a/data/hotels_by_city/Dallas/Dallas_shard_8.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="617">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Marilinda69</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>billyg916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r431036689-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>jimmypig2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r429717071-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>brendagL1199IX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r416543632-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>F7052BJpault</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r410065140-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>M953HRrobertr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r391563030-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kellykL6299ZH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r387907789-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>tinl0af</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r382969298-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>They don't have vending machines. There were dirty socks still in the room when we checked in; other than that the room was clean. I slept ok. Was not happy that if I want a soda I had to walk a block to the convenience store in an unfamiliar place!!</t>
   </si>
   <si>
+    <t>thelmaandlouise2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r373037118-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>785dee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r371808999-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -333,12 +363,18 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>eatamus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r371797310-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>371797310</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r370999214-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -354,6 +390,9 @@
     <t xml:space="preserve">I like this Hotel. I stay frequently or about 10 days per month. It's easy to into and out of the highway. IH 35W is the frontage road and intersects with IH 20. The rooms are large with a sofa, Desk and chair. There is free breakfast available. The staff is extremely friendly and will direct to anywhere you need to go. </t>
   </si>
   <si>
+    <t>dlsoup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r369284095-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +402,9 @@
     <t>05/01/2016</t>
   </si>
   <si>
+    <t>Ian R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r367026987-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -379,6 +421,9 @@
   </si>
   <si>
     <t>In a nutshell, this hotel employs staff that, for the most part is absolutely hateful.  This includes the General Manager, who was rude when I asked if another member of my family could check in since they would arrive sooner, the exact phrase in a snarky voice, "well they'll just have to pay for the room then, it doesn't pay for itself."  You're greeted with a list of rules and regulations that are nearing 20-deep of "do nots," that mostly come across as completely inhospitable.  On top of that, their internet policy inconveniences the guests, and they have zero care or knowledge about it.  Once all of this was brought up to the manager, I received a snarky email in response saying, honestly, that every one of my concerns were unfounded.  Never once did they seem concerned with the customer, but instead felt the need to defend themselves and staff instead.  Avoid this property at all costs.More</t>
+  </si>
+  <si>
+    <t>Ared21</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r361810061-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -434,6 +479,9 @@
     <t>I booked this hotel online, so I was unsure how the room was going to look. The check in process was not so bad, until I had to receive bed linen, blanket and extra towels through a small hole in the window. I arrived after 10pm due to the  drive there from another state and the representative was nice, but I previously worked in Hospitality and I have never seen anything like this before.  The bath tub was not clean upon arrival, but all else was fine. The breakfast was good and so was the lady at the front desk that following morning. We stayed there to visit a college near by, thMore</t>
   </si>
   <si>
+    <t>brea481</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r353617742-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -449,6 +497,9 @@
     <t>Basic room, basic breakfast, dirty tub, sheets had hair sheds on it. I cancel my three nights and I went to Marriott instead. You can get Marriott for $10-15 more</t>
   </si>
   <si>
+    <t>Andrea P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r348666569-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -476,6 +527,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>marionmZ2027UX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r330666320-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -488,6 +542,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>debrab354</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r323985292-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -506,6 +563,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r320879234-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -515,6 +575,9 @@
     <t>10/22/2015</t>
   </si>
   <si>
+    <t>439janiceg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r313145715-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -533,6 +596,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>munciebob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r311893438-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -564,6 +630,9 @@
   </si>
   <si>
     <t>August 2015</t>
+  </si>
+  <si>
+    <t>Gary B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r274932757-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -591,6 +660,9 @@
   The following morning, when I went to to the room's door to go &amp; retrieve breakfast for my parents, I noticed our twist-lock on the door had been unlocked and the security bar at the top was moved partially away from the door. SOMEONE HAD TRIED TO GET INTO OUR ROOM in the night or early morning, &amp; a person would have to have had a key to unlock the twist lock! YES, I...My stay began by booking w/ Hotels.com, saying this hotel was similar to another in the area near John Peter Smith Hospital. The Hotels.com rep said it had a "full breakfast", where the other was just a "continental" breakfast &amp; about the same price, so I booked it. I was also told it had free WiFi, but guess what...NO WiFi!!!  Our first glimpse of what I had gotten us into was the person who met us begging at our car window as we stopped in the drive area to go &amp; check in. Next, the desk clerk was locked inside &amp; I had to give her information thru the theater style window. Our first assignment was a NON-handicap room for my 80+ year old parents. The next disappointment was a room where we discovered a huge toilet leak flooding the floor AFTER everyone was getting undressed for bed. Front desk changed us AGAIN to the room next door, but didn't offer to help move our things.  The following morning, when I went to to the room's door to go &amp; retrieve breakfast for my parents, I noticed our twist-lock on the door had been unlocked and the security bar at the top was moved partially away from the door. SOMEONE HAD TRIED TO GET INTO OUR ROOM in the night or early morning, &amp; a person would have to have had a key to unlock the twist lock! YES, I had the "Do Not Disturb" sign on the door!  Breakfast consisted of packaged Owens breakfast burritos, several day old danish pastery, dry cereal, &amp; make your own waffles. YUK!!! What happened to the full breakfast I was TOLD it had???  DO NOT STAY at this hotel, as it is a serious security risk, besides being poorly maintained and no breakfast!More</t>
   </si>
   <si>
+    <t>935s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r273125022-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -609,6 +681,9 @@
     <t>worst hotel in Fort Wayne.  for starters I was in the lobby with a bunch of teenagers who were trying to book a room for prom night, the front desk lady accused me of trying to rent a room for these teenagers and would not let me check in, I should have read that as a sign.  I was quoted my corporate rate, they would not honor at since they said it was AARP and I was not retired, so it was either pay the rack rate, or be charged the "rack rate" as a no-show and sleep elsewhere, either way I was hosed.  I stayed, the room was fine, the breakfast coffee was horrible with signs everywhere "breakfast is dine in only", I sat down, my paper stuck to the table, I left and went to dennysMore</t>
   </si>
   <si>
+    <t>Felicia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r268733041-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,6 +705,9 @@
     <t>dates here was April 18 - 24 this hotel was good for the first 5 nights...  on April 23rd a maid came and told us that there was a man dead in the room below my daughters so we was standing on balcony looking at all the police and csi etc..watched as they rolled the body out about 3 hours later we then went back in our room.....night before  next 2 my room there was a young lady getting beat up by her boyfriend my daughter called front desk from my room...police never came nor manager till to late....next morning on the 24th my daughter went to pay for room for the day we was told that we had to leave because we had young kids runnung in and out of our rooms and we was standing on balcony didnt know that was one of the rules(couldnt stand outside),we never had any kids at ALL..she is 24 not a kid,we did have one lady come that is 44 to get her hair done we was then told we wasnt to have ANYBODY in the rooms,we didnt know that the mgr then talked to me like i was a child myself when i tried to tell her we never had kids in our room the mgr then argued with me and told me to be quiet not good customer skills...we spent almost $900 for 6 nights and this is how it... dates here was April 18 - 24 this hotel was good for the first 5 nights...  on April 23rd a maid came and told us that there was a man dead in the room below my daughters so we was standing on balcony looking at all the police and csi etc..watched as they rolled the body out about 3 hours later we then went back in our room.....night before  next 2 my room there was a young lady getting beat up by her boyfriend my daughter called front desk from my room...police never came nor manager till to late....next morning on the 24th my daughter went to pay for room for the day we was told that we had to leave because we had young kids runnung in and out of our rooms and we was standing on balcony didnt know that was one of the rules(couldnt stand outside),we never had any kids at ALL..she is 24 not a kid,we did have one lady come that is 44 to get her hair done we was then told we wasnt to have ANYBODY in the rooms,we didnt know that the mgr then talked to me like i was a child myself when i tried to tell her we never had kids in our room the mgr then argued with me and told me to be quiet not good customer skills...we spent almost $900 for 6 nights and this is how it ended up...i asked for the corp # to complain they gave me wrong #..we always came to this inn every time in jail never again...and you shouldnt either no good people or customer skillsMore</t>
   </si>
   <si>
+    <t>Melvin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r263011317-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -642,6 +720,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>ArtteacherSanMarcosT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r258681465-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +732,9 @@
     <t>03/09/2015</t>
   </si>
   <si>
+    <t>Mamgu4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r257368183-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -663,6 +747,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Melvin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r255004001-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -678,6 +765,9 @@
     <t>Breakfast was very limited. I wasn't allowed to take anything to my room for my wife. It was limited to eat in only.</t>
   </si>
   <si>
+    <t>DanielPeer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r239522758-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -690,6 +780,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>jamesdB6814GN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r238674240-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,6 +795,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>CindiKay50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r238092878-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +816,9 @@
     <t>Booked a free night stay with my points, and informed Wyndham who would be checking into the room.  Upon calling to confirm check in, was told by Cindy that he could not check in because he was not the person who booked the room.  When I called Cindy the manager she was very rude to me and told me I had to contact wyndham to see if the second party could check in.  I tried to explain to her that I made the reservation through them she said there was nothing she could do to allow him to check in.  I understand that there are policies in place but she FAILED to listen that I have already followed the policies.  When I asked her what her name was she said "Cindy and I am the General Manager" There was no need for her to be so rude.On the other note the guest did report the room was clean and nice.  Customer Service is the key to good reviews.  Could have gotten a very good rating.More</t>
   </si>
   <si>
+    <t>Ronnie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r229234929-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -732,6 +831,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Joseph W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r229025088-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,6 +843,9 @@
     <t>09/15/2014</t>
   </si>
   <si>
+    <t>Allen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r224298963-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,6 +867,9 @@
     <t>08/18/2014</t>
   </si>
   <si>
+    <t>Sapphire M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r217135927-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -774,12 +882,18 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>abacav22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r217022204-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>217022204</t>
   </si>
   <si>
+    <t>Karla M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r216815896-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -801,6 +915,9 @@
     <t>07/19/2014</t>
   </si>
   <si>
+    <t>Beverly P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r214125702-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -825,6 +942,9 @@
     <t>We were in Ft. Worth attending the Republican State Convention. We stayed two nights. We had a very pleasant experience at this Baymont Inn.</t>
   </si>
   <si>
+    <t>JANELLE D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r210019763-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,12 +963,18 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r207840102-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>207840102</t>
   </si>
   <si>
+    <t>Troubletina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r207585404-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -864,6 +990,9 @@
     <t xml:space="preserve">Had a great visit here. The neighborhood is a bit shady, but we had no problems at all. Front desk was very friendly.  We had two queens and a pull out couch. Had to ask for sheets for the couch and some extra towels, but neither was an issue. Overall is clean place. The pool was nice and breakfast was good, simple but good. </t>
   </si>
   <si>
+    <t>Nickey F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r206678054-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1002,9 @@
     <t>05/22/2014</t>
   </si>
   <si>
+    <t>Joe_D_M2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r205970586-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1032,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Maria S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r196797479-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1068,9 @@
     <t>Responded March 7, 2014</t>
   </si>
   <si>
+    <t>Cal W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r193818533-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1089,9 @@
     <t>Flew to Ft Worth to attend my mother's funeral. We had a lot of family coming in from out of town so I didn't want to end up sleeping on someone's couch so I spent the $72 for a night's lodging. While the motel was near the Interstate, the room was nice and I slept like a log. Very quite night.The check-in staff was very friendly and accomodated my need for an early check-in. The Continental Breakfast was very good. I loved the Texas shaped waffles! In the hotel business, you get what you pay for, but I certainly got my money's worth here!More</t>
   </si>
   <si>
+    <t>collie52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r193716448-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1110,9 @@
     <t>I  stayed 5  nights,  it  seemed  ok  at  first.  After a  few  nights I  started  getting  what I  thought  was  a  rash. I  did  not  think  much  of  it  at  first  as I  have  psoriasis  and  rashes  are  nothing  new  but  this  looked  different do I  had  it  checked out  when  I  got  home.  It  turned  out  to  be  bed  bug  bites. I  called  the  hotel  and  was  given  the  managers  voice  mail, I  have  yet  to  hear  back.  I  called  the  national  number  and  they  said  someone  will  call  me  I   the  next  four  days,  we  will  see.More</t>
   </si>
   <si>
+    <t>Annie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r191396322-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1143,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r181325680-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1161,9 @@
     <t>The Baymont Inn was located near where I needed to be.  I should have looked a little bit longer and would have found much better properties.  I was disappointed from the start.  The lobby is spartan.   The room was big enough and tidy but on closer examination the place needed a thorough cleaning.  The bare minimum cleaning was evident. There is another budget hotel next door for half the cost and probably cleaner.  Checkout was done while the clerk was on the phone!</t>
   </si>
   <si>
+    <t>Darryl M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r180729977-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1173,9 @@
     <t>10/12/2013</t>
   </si>
   <si>
+    <t>emmaxoxo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r179921711-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1194,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Dana P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r176726038-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1206,9 @@
     <t>09/11/2013</t>
   </si>
   <si>
+    <t>Becky R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r174408999-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1221,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Shelley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r174226923-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1233,9 @@
     <t>08/26/2013</t>
   </si>
   <si>
+    <t>Marco O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r171102485-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1245,9 @@
     <t>08/06/2013</t>
   </si>
   <si>
+    <t>Timothy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r167291884-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1266,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Robert W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r166640619-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1278,9 @@
     <t>07/07/2013</t>
   </si>
   <si>
+    <t>Elbony W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r164452146-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1293,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Kathy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r163911718-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1309,9 @@
   </si>
   <si>
     <t>I probably wont stay Baymont Fort Worth again.....The first day I was there I noticed the floor in my room had not been vacuumed...I dropped a ring and when I was looking for it I pulled out the night stand between the 2 beds and the floor was filthy...The breakfast was OK, but the owner didn't keep it stocked....We had to keep ringing the bell to get butter and other stuff.....The bedding did not look clean.....I took the comforter off and used my own quilt.....Just, not good all around....Also, the parking lot had trash all over the place.....I think I will look at other places for my next trip...</t>
+  </si>
+  <si>
+    <t>Bethany C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r163404426-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -1161,6 +1341,9 @@
 Breakfast consisted of waffles shaped as the state of Texas, fruit,...We arrived somewhere in the neighborhood of 2 AM and the area "seemed" okay, but I was a little leery. (The next morning when we left for the day, we realized this area is perfectly fine and there is nothing to fear. There are other chain motels to the left and right and plenty of restaurants and Wal-Mart a few miles away.) We arrived a day early and the front desk clerk could not give us the same rate we had been booked at for the next two days. Luckily, the 800 reservation line was able to add the extra day for the same rate. We paid less than $60.00 a night - this includes tax.The room had two very comfortable queen beds and a sofa sleeper. It was so comforting to walk into a clean room. No stains, rips or tears. There was ZERO mildew in the bathroom. The tiles in the bathroom were all intact. The fixtures were not dusty. When housekeeping cleaned our room, they would "tuck in" my daughter's doll for when she returned. I thought it was a very sweet gesture. We have nothing but pleasant things to say about the housekeeping staff. It was extremely quiet, but each morning when we left there were only a handful of cars on our side of the parking lot. They obviously had plenty of vacancies. Breakfast consisted of waffles shaped as the state of Texas, fruit, cereal, small biscuit and sausage packages and danishes. Perfectly acceptable and the area was clean. The pool is small and in need of maybe a good refacing, but okay.The front desk staff was hit and miss. One day it would be great, but the next you could be in the lobby for 30 minutes and never be greeted and the breakfast area never serviced. This, honestly, is our only complaint. We are a family that doesn't take vacations often. We are normally very limited and paying extreme prices for lodging absolutely drives me crazy, but I would stay here again without hesitation.More</t>
   </si>
   <si>
+    <t>Robins H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r162347827-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1353,9 @@
     <t>05/29/2013</t>
   </si>
   <si>
+    <t>Ilene F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r162202209-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1389,9 @@
     <t xml:space="preserve">If all you are doing is sleeping and getting up and leaving the next am, this place is okay but would not stay for extended time. The room was clean but the hotel was just not up to par, breakfast, even for a continental was a joke, no one at the front desk to restock it or even act like they cared. very noisy location. </t>
   </si>
   <si>
+    <t>mariana48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r161538870-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1407,9 @@
     <t>We enjoyed our stay at Baymont inn and suites. It is not a fancy hotel but we got  a good  deal with the price we paid. My husband, our two teenage boys , and myself all stayed in the suite. We got two queens and a sofa bed. The staff were friendly and we got two hour earlier check in upon my request and late check out too. The continental breakfast was decent and was replenished when it was needed. It is also close downtown Fort Worth and the famous Sundance Square.</t>
   </si>
   <si>
+    <t>Kevin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r161202104-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1236,12 +1428,18 @@
     <t>05/07/2013</t>
   </si>
   <si>
+    <t>Claudio C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159983237-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>159983237</t>
   </si>
   <si>
+    <t>Brandi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159581661-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1449,9 @@
     <t>05/03/2013</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159458586-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1464,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159341850-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1476,9 @@
     <t>05/01/2013</t>
   </si>
   <si>
+    <t>JayT991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159194439-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1494,9 @@
     <t>This place is nasty from front desk to the room. The front desk people are the rudest I have ever had to deal with and the lobby still had breakfast trash around at 2 pm the room smelled very bad bathroom was nasty. I would stay under a bridge before I stay here again.</t>
   </si>
   <si>
+    <t>Sharline O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158714466-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1509,9 @@
     <t xml:space="preserve">good customer service, reasonable value, the place could use some updating especially in the bathroom. </t>
   </si>
   <si>
+    <t>Cynthia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158230851-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1521,9 @@
     <t>04/19/2013</t>
   </si>
   <si>
+    <t>Eddie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158098623-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1533,9 @@
     <t>04/18/2013</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r157132150-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1548,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>tbn82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r154391078-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1566,9 @@
     <t>I stayed here!!!for four days,,,and three nights and I was very satisfied...I will be coming Back to Dallas in July for two weeks,,,and im gonna stay here again,,,I will recommend this hotel to anybody...</t>
   </si>
   <si>
+    <t>dtwsjw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r154310781-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1584,9 @@
     <t xml:space="preserve">Hotel outdated. Needs  major overhaul. Location the only thing good about this place. Had a reservation but night clerk said we did not. Even after showing her the confirmation email she really did not believe me. Only reluctantly did she give us a room at the price we were quoted. Hotel was barely full. This person should not be working at this hotel. Sorry I did not get her name. Fixtures in sink and bathtub unacceptable. </t>
   </si>
   <si>
+    <t>summermccoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r149616497-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1605,9 @@
     <t>ok hotel room was in nice condition beds comforable. Tv old yes. Good wifi. Bad side is that at the hotel next door has door knockers and drug dealing going on all through the night. My three year old child found a syring and needle under the sink and it had blood in it im guesding I dont need to say what it wad use for my husband went to the office and all she could say was I will move you to a single bed room knowing we have three children. And could possible have more needles and stuff in it. My husbands employee found a pill by the microwve in his room overall I would never put my family in the sitiation again.More</t>
   </si>
   <si>
+    <t>ANDREW B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r145336773-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1620,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>RICK G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r145219300-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1632,9 @@
     <t>11/12/2012</t>
   </si>
   <si>
+    <t>Arthur T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r144895327-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1644,9 @@
     <t>11/07/2012</t>
   </si>
   <si>
+    <t>dogmanhawk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143642813-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,12 +1674,18 @@
     <t>Stayed here Thursday through Sunday.  Room is very nice with a couch and king size bed.  The shower has good strong pressure.   Wish they would update the television.  Staff was very friendly, helpful  and efficient.More</t>
   </si>
   <si>
+    <t>BRIAN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143606058-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>143606058</t>
   </si>
   <si>
+    <t>JAMES M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143478480-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1704,9 @@
     <t>10/21/2012</t>
   </si>
   <si>
+    <t>John F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143210663-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1716,9 @@
     <t>10/19/2012</t>
   </si>
   <si>
+    <t>NEEL P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143198796-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1731,9 @@
     <t>It was good except the breakfast.it was terrible ,no choice, but due to the location we were able to get breakfast from outside everyday.</t>
   </si>
   <si>
+    <t>KENDRA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r142317159-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1749,9 @@
     <t>I slept well, the bed was comfy, and it served it's purpose, but that's about it.  Nothing spectacular. The female that was working at the desk on the morning we left had a definite attitude problem.  She was slamming things down at the breakfast counter, and making really loud sigh noises.  She made it seem like it was a real inconvenience when another guest informed her they were out of coffee.</t>
   </si>
   <si>
+    <t>JAMES K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r142250107-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1785,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>ADAM G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r140120337-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1803,9 @@
     <t xml:space="preserve">The experience was not poor but I would spend my dollars elsewhere on a return trip. With a motel chain next door advertising at half of the cost, I hoped amenities would be better than offered. The tv was a standard tube set clearly from before the year 2000 and the overall feel of the room was dated and a little sketchy with the  covering over the smoke detector. </t>
   </si>
   <si>
+    <t>trekmiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r125411920-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1827,9 @@
     <t>I stayed 3 nights in this location.  The bed was very comfortable!  That is always a plus for me.  The room was large and clean.  Non-smoking room and there was no old smoke smell.  There was a microwave, fridge, iron/ironing board, and a coffee pot.  If it weren't for a few quirks, I'd give it a higher rating.  There was a strange sign on the wall saying to turn on the fan in the bathroom before running the microwave to keep from setting off the smoke alarm...what???  Also, apparently, the smoke alarms get tampered with often at this location, because there was a cage around the alarm!  I had some bottled sodas that I put in the fridge, unfortunately they froze.  I didn't check the fridge temp first.  So, I decided to go find the soda machine, but the area that was marked vending did not have any vending machines at all.  The wifi signal was a little low, overpowered by the Motel 6 signal next door.  Unfortunately, the Motel 6 wifi wasn't free, so there was no using that.  Once I was able to connect, the wifi worked well.  All in all, it wasn't a bad stay.  I'd stay there again, being aware of the quirks ahead of time would help.  Still not sure I'm brave enough to use the microwave!More</t>
   </si>
   <si>
+    <t>giome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r121936645-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1845,9 @@
     <t>On our way to Austin we decided to stay in this hotel for the night, it is located right next to the highway so it is convenient if you are just stopping on your way. the hotel look is average and a bit old but it all seemed clean and the bed was very comfortable. The only bad thing i noticed is the walls are very thin so we could hear the people around. I recommend this hotel if you are just stopping for a night or two, it is a very good price with free parking and breakfast.</t>
   </si>
   <si>
+    <t>Darren S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r119067863-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1594,6 +1864,9 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>amazinfindz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r22063895-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -2116,43 +2389,47 @@
       <c r="A2" t="n">
         <v>32365</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>118064</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2170,50 +2447,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32365</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2237,48 +2518,52 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32365</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118066</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2302,50 +2587,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32365</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>118067</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2369,50 +2658,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32365</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>118068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2436,50 +2729,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32365</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118069</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2503,50 +2800,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32365</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>118070</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2570,50 +2871,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32365</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>118071</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2633,35 +2938,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32365</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>118072</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2669,10 +2978,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2693,36 +3002,37 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32365</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>118073</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2730,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2754,36 +3064,37 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32365</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>118074</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2791,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2815,51 +3126,52 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32365</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>118075</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>109</v>
       </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2883,35 +3195,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32365</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>118076</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2919,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2943,51 +3259,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32365</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>53109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3007,35 +3324,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32365</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>118077</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -3043,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3067,9 +3388,6 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3081,37 +3399,37 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3129,7 +3447,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -3142,37 +3460,37 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3196,50 +3514,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32365</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>118078</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>139</v>
       </c>
-      <c r="L19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>124</v>
-      </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3263,35 +3585,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32365</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>34257</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3299,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3323,51 +3649,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32365</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>118074</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3391,48 +3718,52 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32365</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>118079</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3448,50 +3779,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32365</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>118080</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3515,35 +3850,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32365</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3551,10 +3890,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3575,51 +3914,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32365</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>118081</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3643,50 +3983,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32365</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>118082</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3700,50 +4044,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32365</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>118067</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3767,50 +4115,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32365</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>700</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3830,50 +4182,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32365</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>118083</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3897,50 +4253,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32365</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>69378</v>
+      </c>
+      <c r="C30" t="s">
+        <v>217</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3964,35 +4324,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32365</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>101157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4000,10 +4364,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4024,36 +4388,37 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32365</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>118084</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -4061,10 +4426,10 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4085,49 +4450,50 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32365</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>118085</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4151,50 +4517,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32365</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>118086</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4218,35 +4588,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32365</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>118087</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4254,10 +4628,10 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4278,36 +4652,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32365</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>118088</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4315,10 +4690,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4339,51 +4714,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32365</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>6533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4401,35 +4777,39 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32365</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>118089</v>
+      </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4437,10 +4817,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4461,36 +4841,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32365</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>6571</v>
+      </c>
+      <c r="C39" t="s">
+        <v>267</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4498,10 +4879,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4522,36 +4903,37 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32365</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>118090</v>
+      </c>
+      <c r="C40" t="s">
+        <v>271</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4559,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4583,9 +4965,6 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4597,22 +4976,22 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4620,10 +4999,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4644,36 +5023,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32365</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>118091</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4681,10 +5061,10 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4705,36 +5085,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32365</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>118092</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="J43" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4742,10 +5123,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4766,36 +5147,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32365</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>118093</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4803,10 +5185,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4827,9 +5209,6 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4841,22 +5220,22 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="J45" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4864,10 +5243,10 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4888,49 +5267,50 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32365</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>23380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>295</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="J46" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4952,50 +5332,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32365</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>118088</v>
+      </c>
+      <c r="C47" t="s">
+        <v>262</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5019,35 +5403,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32365</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>118094</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -5055,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5079,36 +5467,37 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32365</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>118090</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="J49" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5116,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5140,36 +5529,37 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32365</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C50" t="s">
+        <v>311</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5177,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5201,51 +5591,52 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32365</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>118095</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="J51" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5259,35 +5650,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32365</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>118096</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="J52" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5295,10 +5690,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5319,36 +5714,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32365</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>118097</v>
+      </c>
+      <c r="C53" t="s">
+        <v>324</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5356,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5380,51 +5776,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32365</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>69378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="K54" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5448,50 +5845,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32365</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>13965</v>
+      </c>
+      <c r="C55" t="s">
+        <v>334</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="J55" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="K55" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5515,48 +5916,52 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32365</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>118090</v>
+      </c>
+      <c r="C56" t="s">
+        <v>279</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5578,56 +5983,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="X56" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="Y56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32365</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>118098</v>
+      </c>
+      <c r="C57" t="s">
+        <v>346</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="J57" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="K57" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="O57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5649,47 +6058,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="X57" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="Y57" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32365</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>118099</v>
+      </c>
+      <c r="C58" t="s">
+        <v>353</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="J58" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K58" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -5716,56 +6129,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="X58" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="Y58" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32365</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>118100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>360</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="J59" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="K59" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5789,35 +6206,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32365</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="J60" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5825,10 +6246,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="O60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5849,51 +6270,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32365</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>371</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="O61" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5917,35 +6339,39 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32365</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>118101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>377</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5953,10 +6379,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="O62" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5977,51 +6403,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32365</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>60040</v>
+      </c>
+      <c r="C63" t="s">
+        <v>381</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6045,35 +6472,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32365</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>44853</v>
+      </c>
+      <c r="C64" t="s">
+        <v>388</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="J64" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6081,10 +6512,10 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="O64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6105,36 +6536,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32365</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>32442</v>
+      </c>
+      <c r="C65" t="s">
+        <v>392</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="J65" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6142,10 +6574,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6158,36 +6590,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>32365</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>32320</v>
+      </c>
+      <c r="C66" t="s">
+        <v>397</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="J66" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6195,10 +6628,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6219,49 +6652,50 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>32365</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>47057</v>
+      </c>
+      <c r="C67" t="s">
+        <v>401</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="J67" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6281,50 +6715,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>32365</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>118102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>405</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="J68" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="K68" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="L68" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="O68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6348,35 +6786,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>32365</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>325</v>
+      </c>
+      <c r="C69" t="s">
+        <v>412</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="J69" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6384,10 +6826,10 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6408,36 +6850,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>32365</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>118103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>416</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="J70" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6445,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="O70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6469,51 +6912,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>32365</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>28892</v>
+      </c>
+      <c r="C71" t="s">
+        <v>421</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="J71" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="K71" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="O71" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6537,50 +6981,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>32365</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>11310</v>
+      </c>
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="J72" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="K72" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6604,48 +7052,52 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>32365</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>118104</v>
+      </c>
+      <c r="C73" t="s">
+        <v>435</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="J73" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6669,50 +7121,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>32365</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>118105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>439</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="J74" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="K74" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6736,7 +7192,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75">
@@ -6749,37 +7205,37 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="J75" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="K75" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -6803,50 +7259,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>32365</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>118106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>451</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="J76" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="K76" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="L76" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -6870,48 +7330,52 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>32365</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>16694</v>
+      </c>
+      <c r="C77" t="s">
+        <v>457</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="J77" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -6935,7 +7399,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78">
@@ -6948,22 +7412,22 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -6971,10 +7435,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -6995,36 +7459,37 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>32365</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>60543</v>
+      </c>
+      <c r="C79" t="s">
+        <v>464</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="J79" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7032,10 +7497,10 @@
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O79" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7056,36 +7521,37 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>32365</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>22608</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="J80" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7093,10 +7559,10 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7117,36 +7583,37 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>32365</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C81" t="s">
+        <v>471</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="J81" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7154,10 +7621,10 @@
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O81" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7176,36 +7643,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>32365</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C82" t="s">
+        <v>476</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="J82" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7213,10 +7681,10 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7237,51 +7705,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>32365</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>118107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>480</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="J83" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="K83" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="L83" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O83" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7305,50 +7774,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>32365</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>118108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>486</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="J84" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
       <c r="K84" t="s">
         <v>34</v>
       </c>
       <c r="L84" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7372,35 +7845,39 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>32365</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>31269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>491</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="J85" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -7408,10 +7885,10 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7432,36 +7909,37 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>32365</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>118109</v>
+      </c>
+      <c r="C86" t="s">
+        <v>495</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>425</v>
+        <v>497</v>
       </c>
       <c r="J86" t="s">
-        <v>426</v>
+        <v>498</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7469,10 +7947,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="O86" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7493,36 +7971,37 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>32365</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C87" t="s">
+        <v>499</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="J87" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7530,10 +8009,10 @@
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="O87" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -7554,42 +8033,43 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>32365</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>118110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>504</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="J88" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="K88" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="L88" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -7618,41 +8098,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>32365</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>118111</v>
+      </c>
+      <c r="C89" t="s">
+        <v>510</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="J89" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="K89" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="L89" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
@@ -7681,41 +8165,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>32365</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>118112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>516</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="J90" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="K90" t="s">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="L90" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -7744,48 +8232,52 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>32365</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>118113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>523</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="J91" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -7809,35 +8301,39 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>32365</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>118114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>528</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="J92" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -7845,10 +8341,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="O92" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -7869,36 +8365,37 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>32365</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>51782</v>
+      </c>
+      <c r="C93" t="s">
+        <v>532</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="J93" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -7906,10 +8403,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="O93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -7930,51 +8427,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>32365</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>118115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>536</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="J94" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="K94" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="L94" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -7996,41 +8494,45 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="X94" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="Y94" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>32365</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>118116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>546</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="J95" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -8038,10 +8540,10 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8062,36 +8564,37 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>32365</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>118117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>549</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="J96" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8099,10 +8602,10 @@
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O96" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8123,36 +8626,37 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>32365</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>118108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>495</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>471</v>
+        <v>553</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="J97" t="s">
-        <v>473</v>
+        <v>555</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8160,10 +8664,10 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8184,36 +8688,37 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>32365</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>156</v>
+      </c>
+      <c r="C98" t="s">
+        <v>556</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>474</v>
+        <v>557</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>475</v>
+        <v>558</v>
       </c>
       <c r="J98" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8221,10 +8726,10 @@
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O98" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8245,51 +8750,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>32365</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>118118</v>
+      </c>
+      <c r="C99" t="s">
+        <v>560</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>477</v>
+        <v>561</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="J99" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="K99" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="L99" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8313,50 +8819,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>32365</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>118119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>565</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="J100" t="s">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="K100" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="L100" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O100" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -8380,50 +8890,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>32365</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>95930</v>
+      </c>
+      <c r="C101" t="s">
+        <v>571</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>486</v>
+        <v>572</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>487</v>
+        <v>573</v>
       </c>
       <c r="J101" t="s">
-        <v>488</v>
+        <v>574</v>
       </c>
       <c r="K101" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="L101" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="O101" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8447,50 +8961,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>32365</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>118096</v>
+      </c>
+      <c r="C102" t="s">
+        <v>324</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>491</v>
+        <v>577</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="J102" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="K102" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="L102" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="O102" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -8514,50 +9032,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>32365</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>118120</v>
+      </c>
+      <c r="C103" t="s">
+        <v>583</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>498</v>
+        <v>585</v>
       </c>
       <c r="J103" t="s">
-        <v>499</v>
+        <v>586</v>
       </c>
       <c r="K103" t="s">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -8581,50 +9103,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>32365</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>118121</v>
+      </c>
+      <c r="C104" t="s">
+        <v>589</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>503</v>
+        <v>591</v>
       </c>
       <c r="J104" t="s">
-        <v>504</v>
+        <v>592</v>
       </c>
       <c r="K104" t="s">
-        <v>505</v>
+        <v>593</v>
       </c>
       <c r="L104" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="O104" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -8648,41 +9174,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>508</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>32365</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>118122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>597</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="J105" t="s">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="K105" t="s">
-        <v>512</v>
+        <v>601</v>
       </c>
       <c r="L105" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
@@ -8711,50 +9241,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>32365</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>39742</v>
+      </c>
+      <c r="C106" t="s">
+        <v>603</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="J106" t="s">
-        <v>516</v>
+        <v>606</v>
       </c>
       <c r="K106" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="L106" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>519</v>
+        <v>609</v>
       </c>
       <c r="O106" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -8778,50 +9312,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>32365</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>118123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>610</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>520</v>
+        <v>611</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>521</v>
+        <v>612</v>
       </c>
       <c r="J107" t="s">
-        <v>522</v>
+        <v>613</v>
       </c>
       <c r="K107" t="s">
-        <v>523</v>
+        <v>614</v>
       </c>
       <c r="L107" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>525</v>
+        <v>616</v>
       </c>
       <c r="O107" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -8845,7 +9383,7 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_8.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>STR#</t>
   </si>
@@ -150,10 +150,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Marilinda69</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
+    <t>08/16/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r576144007-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -183,9 +180,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>billyg916</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r431036689-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>jimmypig2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r429717071-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>brendagL1199IX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r416543632-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>F7052BJpault</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r410065140-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>M953HRrobertr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r391563030-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,9 +276,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>kellykL6299ZH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r387907789-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>tinl0af</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r382969298-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>They don't have vending machines. There were dirty socks still in the room when we checked in; other than that the room was clean. I slept ok. Was not happy that if I want a soda I had to walk a block to the convenience store in an unfamiliar place!!</t>
   </si>
   <si>
-    <t>thelmaandlouise2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r373037118-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,9 +321,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>785dee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r371808999-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,18 +333,12 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>eatamus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r371797310-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>371797310</t>
   </si>
   <si>
-    <t>Juan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r370999214-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -390,9 +354,6 @@
     <t xml:space="preserve">I like this Hotel. I stay frequently or about 10 days per month. It's easy to into and out of the highway. IH 35W is the frontage road and intersects with IH 20. The rooms are large with a sofa, Desk and chair. There is free breakfast available. The staff is extremely friendly and will direct to anywhere you need to go. </t>
   </si>
   <si>
-    <t>dlsoup</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r369284095-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,9 +363,6 @@
     <t>05/01/2016</t>
   </si>
   <si>
-    <t>Ian R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r367026987-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -421,9 +379,6 @@
   </si>
   <si>
     <t>In a nutshell, this hotel employs staff that, for the most part is absolutely hateful.  This includes the General Manager, who was rude when I asked if another member of my family could check in since they would arrive sooner, the exact phrase in a snarky voice, "well they'll just have to pay for the room then, it doesn't pay for itself."  You're greeted with a list of rules and regulations that are nearing 20-deep of "do nots," that mostly come across as completely inhospitable.  On top of that, their internet policy inconveniences the guests, and they have zero care or knowledge about it.  Once all of this was brought up to the manager, I received a snarky email in response saying, honestly, that every one of my concerns were unfounded.  Never once did they seem concerned with the customer, but instead felt the need to defend themselves and staff instead.  Avoid this property at all costs.More</t>
-  </si>
-  <si>
-    <t>Ared21</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r361810061-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -451,14 +406,14 @@
 Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.
 My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.
 We made a complaint with the manager and this is how she started her email: 
-"I am emailing you today in...I learned from Bambi that if you can't say anything nice, don't say anything at all but I feel it is necessary to protect other travelers from a hotel that is stuck in the past.Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.We made a complaint with the manager and this is how she started her email: "I am emailing you today in response to a complaint filed with Baymont about your recent stay.  I apologize for any inconveniences you may have experienced as a result of hotel policies.  I understand that you may not be the type of guest that will cause issues and problems, but 80% of hotel guests do.  That is what makes the policies necessary.  Policies apply to all guests to be fair.  "  That's not a great start for someone in the service industry.  The wifi password expires after 48 hours and you MUST return to the front desk to sign for a new one.  Here is what the manager said about that "It is necessary to sign for your internet password due to the many guests that illegally download content.  We are on the hook for any illegal downloads.  By having guests sign for their passwords, it relieves us of legal responsibility because we are able to prove which guest downloaded the content and provide the wronged party with the information they need for prosecution.  Without doing this, we would lose our internet from our provider.  As you well know, guests do not frequent hotels without free internet. " Really?  I don't frequent hotels that have to have a budget internet...MoreShow less</t>
+"I am emailing you today in...I learned from Bambi that if you can't say anything nice, don't say anything at all but I feel it is necessary to protect other travelers from a hotel that is stuck in the past.Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.We made a complaint with the manager and this is how she started her email: "I am emailing you today in response to a complaint filed with Baymont about your recent stay.  I apologize for any inconveniences you may have experienced as a result of hotel policies.  I understand that you may not be the type of guest that will cause issues and problems, but 80% of hotel guests do.  That is what makes the policies necessary.  Policies apply to all guests to be fair.  "  That's not a great start for someone in the service industry.  The wifi password expires after 48 hours and you MUST return to the front desk to sign for a new one.  Here is what the manager said about that "It is necessary to sign for your internet password due to the many guests that illegally download content.  We are on the hook for any illegal downloads.  By having guests sign for their passwords, it relieves us of legal responsibility because we are able to prove which guest downloaded the content and provide the wronged party with the information they need for prosecution.  Without doing this, we would lose our internet from our provider.  As you well know, guests do not frequent hotels without free internet. " Really?  I don't frequent hotels that have to have a budget internet provider!Save yourself some trouble and find another hotel.  This hotel does not live up to the Baymont or Wyndham brand.  So disappointed that you can't trust either.MoreShow less</t>
   </si>
   <si>
     <t>I learned from Bambi that if you can't say anything nice, don't say anything at all but I feel it is necessary to protect other travelers from a hotel that is stuck in the past.
 Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.
 My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.
 We made a complaint with the manager and this is how she started her email: 
-"I am emailing you today in...I learned from Bambi that if you can't say anything nice, don't say anything at all but I feel it is necessary to protect other travelers from a hotel that is stuck in the past.Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.We made a complaint with the manager and this is how she started her email: "I am emailing you today in response to a complaint filed with Baymont about your recent stay.  I apologize for any inconveniences you may have experienced as a result of hotel policies.  I understand that you may not be the type of guest that will cause issues and problems, but 80% of hotel guests do.  That is what makes the policies necessary.  Policies apply to all guests to be fair.  "  That's not a great start for someone in the service industry.  The wifi password expires after 48 hours and you MUST return to the front desk to sign for a new one.  Here is what the manager said about that "It is necessary to sign for your internet password due to the many guests that illegally download content.  We are on the hook for any illegal downloads.  By having guests sign for their passwords, it relieves us of legal responsibility because we are able to prove which guest downloaded the content and provide the wronged party with the information they need for prosecution.  Without doing this, we would lose our internet from our provider.  As you well know, guests do not frequent hotels without free internet. " Really?  I don't frequent hotels that have to have a budget internet...More</t>
+"I am emailing you today in...I learned from Bambi that if you can't say anything nice, don't say anything at all but I feel it is necessary to protect other travelers from a hotel that is stuck in the past.Rules are KING here!  When you check in, they manually complete a reservation card for each room.  You must provide your car plate number, sign for your internet password, and sign the card in several places.  They have a sign with over 20 rules that are selectively enforced- including eating in the breakfast area- forget the fact that there are only 6 tables for about 50 rooms!  Our second room had a sign posted that you must run the bathroom exhaust while using the microwave to prevent the smoke alarm from going off!  Seriously?  Another rule was no pets, but I heard a small dog barking and saw a man with two large dogs.My room had some wonderful 'art' with a faded price tag of $0.99 still attached.  That really gives a great example of the level of detail here in guest comfort.  They use all of their thinking to make up rules.  The bathroom tiles were cracked and in some places separating from the wall.  The light fixtures were all scratched.  The smoke detector was encased in a cage to prevent tampering.We made a complaint with the manager and this is how she started her email: "I am emailing you today in response to a complaint filed with Baymont about your recent stay.  I apologize for any inconveniences you may have experienced as a result of hotel policies.  I understand that you may not be the type of guest that will cause issues and problems, but 80% of hotel guests do.  That is what makes the policies necessary.  Policies apply to all guests to be fair.  "  That's not a great start for someone in the service industry.  The wifi password expires after 48 hours and you MUST return to the front desk to sign for a new one.  Here is what the manager said about that "It is necessary to sign for your internet password due to the many guests that illegally download content.  We are on the hook for any illegal downloads.  By having guests sign for their passwords, it relieves us of legal responsibility because we are able to prove which guest downloaded the content and provide the wronged party with the information they need for prosecution.  Without doing this, we would lose our internet from our provider.  As you well know, guests do not frequent hotels without free internet. " Really?  I don't frequent hotels that have to have a budget internet provider!Save yourself some trouble and find another hotel.  This hotel does not live up to the Baymont or Wyndham brand.  So disappointed that you can't trust either.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r360052585-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -479,9 +434,6 @@
     <t>I booked this hotel online, so I was unsure how the room was going to look. The check in process was not so bad, until I had to receive bed linen, blanket and extra towels through a small hole in the window. I arrived after 10pm due to the  drive there from another state and the representative was nice, but I previously worked in Hospitality and I have never seen anything like this before.  The bath tub was not clean upon arrival, but all else was fine. The breakfast was good and so was the lady at the front desk that following morning. We stayed there to visit a college near by, thMore</t>
   </si>
   <si>
-    <t>brea481</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r353617742-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -497,9 +449,6 @@
     <t>Basic room, basic breakfast, dirty tub, sheets had hair sheds on it. I cancel my three nights and I went to Marriott instead. You can get Marriott for $10-15 more</t>
   </si>
   <si>
-    <t>Andrea P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r348666569-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -527,9 +476,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>marionmZ2027UX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r330666320-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -542,9 +488,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>debrab354</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r323985292-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -563,9 +506,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>John H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r320879234-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -575,9 +515,6 @@
     <t>10/22/2015</t>
   </si>
   <si>
-    <t>439janiceg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r313145715-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -596,9 +533,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>munciebob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r311893438-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,9 +564,6 @@
   </si>
   <si>
     <t>August 2015</t>
-  </si>
-  <si>
-    <t>Gary B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r274932757-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -660,9 +591,6 @@
   The following morning, when I went to to the room's door to go &amp; retrieve breakfast for my parents, I noticed our twist-lock on the door had been unlocked and the security bar at the top was moved partially away from the door. SOMEONE HAD TRIED TO GET INTO OUR ROOM in the night or early morning, &amp; a person would have to have had a key to unlock the twist lock! YES, I...My stay began by booking w/ Hotels.com, saying this hotel was similar to another in the area near John Peter Smith Hospital. The Hotels.com rep said it had a "full breakfast", where the other was just a "continental" breakfast &amp; about the same price, so I booked it. I was also told it had free WiFi, but guess what...NO WiFi!!!  Our first glimpse of what I had gotten us into was the person who met us begging at our car window as we stopped in the drive area to go &amp; check in. Next, the desk clerk was locked inside &amp; I had to give her information thru the theater style window. Our first assignment was a NON-handicap room for my 80+ year old parents. The next disappointment was a room where we discovered a huge toilet leak flooding the floor AFTER everyone was getting undressed for bed. Front desk changed us AGAIN to the room next door, but didn't offer to help move our things.  The following morning, when I went to to the room's door to go &amp; retrieve breakfast for my parents, I noticed our twist-lock on the door had been unlocked and the security bar at the top was moved partially away from the door. SOMEONE HAD TRIED TO GET INTO OUR ROOM in the night or early morning, &amp; a person would have to have had a key to unlock the twist lock! YES, I had the "Do Not Disturb" sign on the door!  Breakfast consisted of packaged Owens breakfast burritos, several day old danish pastery, dry cereal, &amp; make your own waffles. YUK!!! What happened to the full breakfast I was TOLD it had???  DO NOT STAY at this hotel, as it is a serious security risk, besides being poorly maintained and no breakfast!More</t>
   </si>
   <si>
-    <t>935s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r273125022-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -681,9 +609,6 @@
     <t>worst hotel in Fort Wayne.  for starters I was in the lobby with a bunch of teenagers who were trying to book a room for prom night, the front desk lady accused me of trying to rent a room for these teenagers and would not let me check in, I should have read that as a sign.  I was quoted my corporate rate, they would not honor at since they said it was AARP and I was not retired, so it was either pay the rack rate, or be charged the "rack rate" as a no-show and sleep elsewhere, either way I was hosed.  I stayed, the room was fine, the breakfast coffee was horrible with signs everywhere "breakfast is dine in only", I sat down, my paper stuck to the table, I left and went to dennysMore</t>
   </si>
   <si>
-    <t>Felicia H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r268733041-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -705,9 +630,6 @@
     <t>dates here was April 18 - 24 this hotel was good for the first 5 nights...  on April 23rd a maid came and told us that there was a man dead in the room below my daughters so we was standing on balcony looking at all the police and csi etc..watched as they rolled the body out about 3 hours later we then went back in our room.....night before  next 2 my room there was a young lady getting beat up by her boyfriend my daughter called front desk from my room...police never came nor manager till to late....next morning on the 24th my daughter went to pay for room for the day we was told that we had to leave because we had young kids runnung in and out of our rooms and we was standing on balcony didnt know that was one of the rules(couldnt stand outside),we never had any kids at ALL..she is 24 not a kid,we did have one lady come that is 44 to get her hair done we was then told we wasnt to have ANYBODY in the rooms,we didnt know that the mgr then talked to me like i was a child myself when i tried to tell her we never had kids in our room the mgr then argued with me and told me to be quiet not good customer skills...we spent almost $900 for 6 nights and this is how it... dates here was April 18 - 24 this hotel was good for the first 5 nights...  on April 23rd a maid came and told us that there was a man dead in the room below my daughters so we was standing on balcony looking at all the police and csi etc..watched as they rolled the body out about 3 hours later we then went back in our room.....night before  next 2 my room there was a young lady getting beat up by her boyfriend my daughter called front desk from my room...police never came nor manager till to late....next morning on the 24th my daughter went to pay for room for the day we was told that we had to leave because we had young kids runnung in and out of our rooms and we was standing on balcony didnt know that was one of the rules(couldnt stand outside),we never had any kids at ALL..she is 24 not a kid,we did have one lady come that is 44 to get her hair done we was then told we wasnt to have ANYBODY in the rooms,we didnt know that the mgr then talked to me like i was a child myself when i tried to tell her we never had kids in our room the mgr then argued with me and told me to be quiet not good customer skills...we spent almost $900 for 6 nights and this is how it ended up...i asked for the corp # to complain they gave me wrong #..we always came to this inn every time in jail never again...and you shouldnt either no good people or customer skillsMore</t>
   </si>
   <si>
-    <t>Melvin S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r263011317-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,9 +642,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>ArtteacherSanMarcosT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r258681465-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -732,9 +651,6 @@
     <t>03/09/2015</t>
   </si>
   <si>
-    <t>Mamgu4u</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r257368183-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -747,9 +663,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Melvin G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r255004001-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -765,9 +678,6 @@
     <t>Breakfast was very limited. I wasn't allowed to take anything to my room for my wife. It was limited to eat in only.</t>
   </si>
   <si>
-    <t>DanielPeer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r239522758-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,9 +690,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>jamesdB6814GN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r238674240-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -795,9 +702,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>CindiKay50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r238092878-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -816,9 +720,6 @@
     <t>Booked a free night stay with my points, and informed Wyndham who would be checking into the room.  Upon calling to confirm check in, was told by Cindy that he could not check in because he was not the person who booked the room.  When I called Cindy the manager she was very rude to me and told me I had to contact wyndham to see if the second party could check in.  I tried to explain to her that I made the reservation through them she said there was nothing she could do to allow him to check in.  I understand that there are policies in place but she FAILED to listen that I have already followed the policies.  When I asked her what her name was she said "Cindy and I am the General Manager" There was no need for her to be so rude.On the other note the guest did report the room was clean and nice.  Customer Service is the key to good reviews.  Could have gotten a very good rating.More</t>
   </si>
   <si>
-    <t>Ronnie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r229234929-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -831,9 +732,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Joseph W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r229025088-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,9 +741,6 @@
     <t>09/15/2014</t>
   </si>
   <si>
-    <t>Allen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r224298963-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,9 +762,6 @@
     <t>08/18/2014</t>
   </si>
   <si>
-    <t>Sapphire M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r217135927-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -882,18 +774,12 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>abacav22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r217022204-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>217022204</t>
   </si>
   <si>
-    <t>Karla M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r216815896-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -915,9 +801,6 @@
     <t>07/19/2014</t>
   </si>
   <si>
-    <t>Beverly P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r214125702-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -942,9 +825,6 @@
     <t>We were in Ft. Worth attending the Republican State Convention. We stayed two nights. We had a very pleasant experience at this Baymont Inn.</t>
   </si>
   <si>
-    <t>JANELLE D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r210019763-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -963,18 +843,12 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Michelle B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r207840102-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>207840102</t>
   </si>
   <si>
-    <t>Troubletina</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r207585404-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -990,9 +864,6 @@
     <t xml:space="preserve">Had a great visit here. The neighborhood is a bit shady, but we had no problems at all. Front desk was very friendly.  We had two queens and a pull out couch. Had to ask for sheets for the couch and some extra towels, but neither was an issue. Overall is clean place. The pool was nice and breakfast was good, simple but good. </t>
   </si>
   <si>
-    <t>Nickey F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r206678054-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +873,6 @@
     <t>05/22/2014</t>
   </si>
   <si>
-    <t>Joe_D_M2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r205970586-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +900,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Maria S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r196797479-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1068,9 +933,6 @@
     <t>Responded March 7, 2014</t>
   </si>
   <si>
-    <t>Cal W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r193818533-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +951,6 @@
     <t>Flew to Ft Worth to attend my mother's funeral. We had a lot of family coming in from out of town so I didn't want to end up sleeping on someone's couch so I spent the $72 for a night's lodging. While the motel was near the Interstate, the room was nice and I slept like a log. Very quite night.The check-in staff was very friendly and accomodated my need for an early check-in. The Continental Breakfast was very good. I loved the Texas shaped waffles! In the hotel business, you get what you pay for, but I certainly got my money's worth here!More</t>
   </si>
   <si>
-    <t>collie52</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r193716448-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +969,6 @@
     <t>I  stayed 5  nights,  it  seemed  ok  at  first.  After a  few  nights I  started  getting  what I  thought  was  a  rash. I  did  not  think  much  of  it  at  first  as I  have  psoriasis  and  rashes  are  nothing  new  but  this  looked  different do I  had  it  checked out  when  I  got  home.  It  turned  out  to  be  bed  bug  bites. I  called  the  hotel  and  was  given  the  managers  voice  mail, I  have  yet  to  hear  back.  I  called  the  national  number  and  they  said  someone  will  call  me  I   the  next  four  days,  we  will  see.More</t>
   </si>
   <si>
-    <t>Annie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r191396322-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1143,9 +999,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>John G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r181325680-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1161,9 +1014,6 @@
     <t>The Baymont Inn was located near where I needed to be.  I should have looked a little bit longer and would have found much better properties.  I was disappointed from the start.  The lobby is spartan.   The room was big enough and tidy but on closer examination the place needed a thorough cleaning.  The bare minimum cleaning was evident. There is another budget hotel next door for half the cost and probably cleaner.  Checkout was done while the clerk was on the phone!</t>
   </si>
   <si>
-    <t>Darryl M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r180729977-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1023,6 @@
     <t>10/12/2013</t>
   </si>
   <si>
-    <t>emmaxoxo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r179921711-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1041,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Dana P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r176726038-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1206,9 +1050,6 @@
     <t>09/11/2013</t>
   </si>
   <si>
-    <t>Becky R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r174408999-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1062,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Shelley R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r174226923-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1233,9 +1071,6 @@
     <t>08/26/2013</t>
   </si>
   <si>
-    <t>Marco O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r171102485-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1245,9 +1080,6 @@
     <t>08/06/2013</t>
   </si>
   <si>
-    <t>Timothy A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r167291884-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +1098,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Robert W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r166640619-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1278,9 +1107,6 @@
     <t>07/07/2013</t>
   </si>
   <si>
-    <t>Elbony W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r164452146-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1293,9 +1119,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Kathy T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r163911718-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1309,9 +1132,6 @@
   </si>
   <si>
     <t>I probably wont stay Baymont Fort Worth again.....The first day I was there I noticed the floor in my room had not been vacuumed...I dropped a ring and when I was looking for it I pulled out the night stand between the 2 beds and the floor was filthy...The breakfast was OK, but the owner didn't keep it stocked....We had to keep ringing the bell to get butter and other stuff.....The bedding did not look clean.....I took the comforter off and used my own quilt.....Just, not good all around....Also, the parking lot had trash all over the place.....I think I will look at other places for my next trip...</t>
-  </si>
-  <si>
-    <t>Bethany C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r163404426-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -1341,9 +1161,6 @@
 Breakfast consisted of waffles shaped as the state of Texas, fruit,...We arrived somewhere in the neighborhood of 2 AM and the area "seemed" okay, but I was a little leery. (The next morning when we left for the day, we realized this area is perfectly fine and there is nothing to fear. There are other chain motels to the left and right and plenty of restaurants and Wal-Mart a few miles away.) We arrived a day early and the front desk clerk could not give us the same rate we had been booked at for the next two days. Luckily, the 800 reservation line was able to add the extra day for the same rate. We paid less than $60.00 a night - this includes tax.The room had two very comfortable queen beds and a sofa sleeper. It was so comforting to walk into a clean room. No stains, rips or tears. There was ZERO mildew in the bathroom. The tiles in the bathroom were all intact. The fixtures were not dusty. When housekeeping cleaned our room, they would "tuck in" my daughter's doll for when she returned. I thought it was a very sweet gesture. We have nothing but pleasant things to say about the housekeeping staff. It was extremely quiet, but each morning when we left there were only a handful of cars on our side of the parking lot. They obviously had plenty of vacancies. Breakfast consisted of waffles shaped as the state of Texas, fruit, cereal, small biscuit and sausage packages and danishes. Perfectly acceptable and the area was clean. The pool is small and in need of maybe a good refacing, but okay.The front desk staff was hit and miss. One day it would be great, but the next you could be in the lobby for 30 minutes and never be greeted and the breakfast area never serviced. This, honestly, is our only complaint. We are a family that doesn't take vacations often. We are normally very limited and paying extreme prices for lodging absolutely drives me crazy, but I would stay here again without hesitation.More</t>
   </si>
   <si>
-    <t>Robins H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r162347827-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1353,9 +1170,6 @@
     <t>05/29/2013</t>
   </si>
   <si>
-    <t>Ilene F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r162202209-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1389,9 +1203,6 @@
     <t xml:space="preserve">If all you are doing is sleeping and getting up and leaving the next am, this place is okay but would not stay for extended time. The room was clean but the hotel was just not up to par, breakfast, even for a continental was a joke, no one at the front desk to restock it or even act like they cared. very noisy location. </t>
   </si>
   <si>
-    <t>mariana48</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r161538870-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1407,9 +1218,6 @@
     <t>We enjoyed our stay at Baymont inn and suites. It is not a fancy hotel but we got  a good  deal with the price we paid. My husband, our two teenage boys , and myself all stayed in the suite. We got two queens and a sofa bed. The staff were friendly and we got two hour earlier check in upon my request and late check out too. The continental breakfast was decent and was replenished when it was needed. It is also close downtown Fort Worth and the famous Sundance Square.</t>
   </si>
   <si>
-    <t>Kevin S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r161202104-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1428,18 +1236,12 @@
     <t>05/07/2013</t>
   </si>
   <si>
-    <t>Claudio C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159983237-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>159983237</t>
   </si>
   <si>
-    <t>Brandi S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159581661-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1449,9 +1251,6 @@
     <t>05/03/2013</t>
   </si>
   <si>
-    <t>Robert M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159458586-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1464,9 +1263,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Jennifer M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159341850-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1476,9 +1272,6 @@
     <t>05/01/2013</t>
   </si>
   <si>
-    <t>JayT991</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r159194439-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1494,9 +1287,6 @@
     <t>This place is nasty from front desk to the room. The front desk people are the rudest I have ever had to deal with and the lobby still had breakfast trash around at 2 pm the room smelled very bad bathroom was nasty. I would stay under a bridge before I stay here again.</t>
   </si>
   <si>
-    <t>Sharline O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158714466-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1509,9 +1299,6 @@
     <t xml:space="preserve">good customer service, reasonable value, the place could use some updating especially in the bathroom. </t>
   </si>
   <si>
-    <t>Cynthia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158230851-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1521,9 +1308,6 @@
     <t>04/19/2013</t>
   </si>
   <si>
-    <t>Eddie K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r158098623-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1533,9 +1317,6 @@
     <t>04/18/2013</t>
   </si>
   <si>
-    <t>A Wyndham traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r157132150-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1548,9 +1329,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>tbn82</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r154391078-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1566,9 +1344,6 @@
     <t>I stayed here!!!for four days,,,and three nights and I was very satisfied...I will be coming Back to Dallas in July for two weeks,,,and im gonna stay here again,,,I will recommend this hotel to anybody...</t>
   </si>
   <si>
-    <t>dtwsjw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r154310781-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1584,9 +1359,6 @@
     <t xml:space="preserve">Hotel outdated. Needs  major overhaul. Location the only thing good about this place. Had a reservation but night clerk said we did not. Even after showing her the confirmation email she really did not believe me. Only reluctantly did she give us a room at the price we were quoted. Hotel was barely full. This person should not be working at this hotel. Sorry I did not get her name. Fixtures in sink and bathtub unacceptable. </t>
   </si>
   <si>
-    <t>summermccoy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r149616497-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1605,9 +1377,6 @@
     <t>ok hotel room was in nice condition beds comforable. Tv old yes. Good wifi. Bad side is that at the hotel next door has door knockers and drug dealing going on all through the night. My three year old child found a syring and needle under the sink and it had blood in it im guesding I dont need to say what it wad use for my husband went to the office and all she could say was I will move you to a single bed room knowing we have three children. And could possible have more needles and stuff in it. My husbands employee found a pill by the microwve in his room overall I would never put my family in the sitiation again.More</t>
   </si>
   <si>
-    <t>ANDREW B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r145336773-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +1389,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>RICK G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r145219300-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1632,9 +1398,6 @@
     <t>11/12/2012</t>
   </si>
   <si>
-    <t>Arthur T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r144895327-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1644,9 +1407,6 @@
     <t>11/07/2012</t>
   </si>
   <si>
-    <t>dogmanhawk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143642813-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1674,18 +1434,12 @@
     <t>Stayed here Thursday through Sunday.  Room is very nice with a couch and king size bed.  The shower has good strong pressure.   Wish they would update the television.  Staff was very friendly, helpful  and efficient.More</t>
   </si>
   <si>
-    <t>BRIAN C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143606058-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>143606058</t>
   </si>
   <si>
-    <t>JAMES M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143478480-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1704,9 +1458,6 @@
     <t>10/21/2012</t>
   </si>
   <si>
-    <t>John F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143210663-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1716,9 +1467,6 @@
     <t>10/19/2012</t>
   </si>
   <si>
-    <t>NEEL P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r143198796-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1731,9 +1479,6 @@
     <t>It was good except the breakfast.it was terrible ,no choice, but due to the location we were able to get breakfast from outside everyday.</t>
   </si>
   <si>
-    <t>KENDRA B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r142317159-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1749,9 +1494,6 @@
     <t>I slept well, the bed was comfy, and it served it's purpose, but that's about it.  Nothing spectacular. The female that was working at the desk on the morning we left had a definite attitude problem.  She was slamming things down at the breakfast counter, and making really loud sigh noises.  She made it seem like it was a real inconvenience when another guest informed her they were out of coffee.</t>
   </si>
   <si>
-    <t>JAMES K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r142250107-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1785,9 +1527,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>ADAM G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r140120337-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1803,9 +1542,6 @@
     <t xml:space="preserve">The experience was not poor but I would spend my dollars elsewhere on a return trip. With a motel chain next door advertising at half of the cost, I hoped amenities would be better than offered. The tv was a standard tube set clearly from before the year 2000 and the overall feel of the room was dated and a little sketchy with the  covering over the smoke detector. </t>
   </si>
   <si>
-    <t>trekmiss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r125411920-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1827,9 +1563,6 @@
     <t>I stayed 3 nights in this location.  The bed was very comfortable!  That is always a plus for me.  The room was large and clean.  Non-smoking room and there was no old smoke smell.  There was a microwave, fridge, iron/ironing board, and a coffee pot.  If it weren't for a few quirks, I'd give it a higher rating.  There was a strange sign on the wall saying to turn on the fan in the bathroom before running the microwave to keep from setting off the smoke alarm...what???  Also, apparently, the smoke alarms get tampered with often at this location, because there was a cage around the alarm!  I had some bottled sodas that I put in the fridge, unfortunately they froze.  I didn't check the fridge temp first.  So, I decided to go find the soda machine, but the area that was marked vending did not have any vending machines at all.  The wifi signal was a little low, overpowered by the Motel 6 signal next door.  Unfortunately, the Motel 6 wifi wasn't free, so there was no using that.  Once I was able to connect, the wifi worked well.  All in all, it wasn't a bad stay.  I'd stay there again, being aware of the quirks ahead of time would help.  Still not sure I'm brave enough to use the microwave!More</t>
   </si>
   <si>
-    <t>giome</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r121936645-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1845,9 +1578,6 @@
     <t>On our way to Austin we decided to stay in this hotel for the night, it is located right next to the highway so it is convenient if you are just stopping on your way. the hotel look is average and a bit old but it all seemed clean and the bed was very comfortable. The only bad thing i noticed is the walls are very thin so we could hear the people around. I recommend this hotel if you are just stopping for a night or two, it is a very good price with free parking and breakfast.</t>
   </si>
   <si>
-    <t>Darren S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r119067863-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1864,9 +1594,6 @@
   </si>
   <si>
     <t>October 2011</t>
-  </si>
-  <si>
-    <t>amazinfindz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109211-r22063895-America_s_Best_Value_Inn_Suites-Fort_Worth_Texas.html</t>
@@ -2389,47 +2116,43 @@
       <c r="A2" t="n">
         <v>32365</v>
       </c>
-      <c r="B2" t="n">
-        <v>118064</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2447,54 +2170,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32365</v>
       </c>
-      <c r="B3" t="n">
-        <v>118065</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2518,52 +2237,48 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32365</v>
       </c>
-      <c r="B4" t="n">
-        <v>118066</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2587,54 +2302,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32365</v>
       </c>
-      <c r="B5" t="n">
-        <v>118067</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2658,54 +2369,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32365</v>
       </c>
-      <c r="B6" t="n">
-        <v>118068</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2729,54 +2436,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32365</v>
       </c>
-      <c r="B7" t="n">
-        <v>118069</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2800,54 +2503,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32365</v>
       </c>
-      <c r="B8" t="n">
-        <v>118070</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2871,54 +2570,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32365</v>
       </c>
-      <c r="B9" t="n">
-        <v>118071</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2938,39 +2633,35 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32365</v>
       </c>
-      <c r="B10" t="n">
-        <v>118072</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2978,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3002,37 +2693,36 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32365</v>
       </c>
-      <c r="B11" t="n">
-        <v>118073</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3040,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3064,37 +2754,36 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32365</v>
       </c>
-      <c r="B12" t="n">
-        <v>118074</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3102,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3126,52 +2815,51 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32365</v>
       </c>
-      <c r="B13" t="n">
-        <v>118075</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3195,39 +2883,35 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32365</v>
       </c>
-      <c r="B14" t="n">
-        <v>118076</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3235,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3259,52 +2943,51 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32365</v>
       </c>
-      <c r="B15" t="n">
-        <v>53109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>128</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3324,39 +3007,35 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32365</v>
       </c>
-      <c r="B16" t="n">
-        <v>118077</v>
-      </c>
-      <c r="C16" t="s">
-        <v>135</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -3364,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3388,6 +3067,9 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3399,37 +3081,37 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3447,7 +3129,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -3460,37 +3142,37 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3514,54 +3196,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32365</v>
       </c>
-      <c r="B19" t="n">
-        <v>118078</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3585,39 +3263,35 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32365</v>
       </c>
-      <c r="B20" t="n">
-        <v>34257</v>
-      </c>
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3625,10 +3299,10 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3649,52 +3323,51 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32365</v>
       </c>
-      <c r="B21" t="n">
-        <v>118074</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3718,52 +3391,48 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32365</v>
       </c>
-      <c r="B22" t="n">
-        <v>118079</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3779,54 +3448,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32365</v>
       </c>
-      <c r="B23" t="n">
-        <v>118080</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3850,39 +3515,35 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32365</v>
       </c>
-      <c r="B24" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C24" t="s">
-        <v>179</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3890,10 +3551,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3914,52 +3575,51 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32365</v>
       </c>
-      <c r="B25" t="n">
-        <v>118081</v>
-      </c>
-      <c r="C25" t="s">
-        <v>183</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3983,54 +3643,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32365</v>
       </c>
-      <c r="B26" t="n">
-        <v>118082</v>
-      </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4044,54 +3700,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32365</v>
       </c>
-      <c r="B27" t="n">
-        <v>118067</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4115,54 +3767,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32365</v>
       </c>
-      <c r="B28" t="n">
-        <v>700</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4182,54 +3830,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32365</v>
       </c>
-      <c r="B29" t="n">
-        <v>118083</v>
-      </c>
-      <c r="C29" t="s">
-        <v>210</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4253,54 +3897,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32365</v>
       </c>
-      <c r="B30" t="n">
-        <v>69378</v>
-      </c>
-      <c r="C30" t="s">
-        <v>217</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4324,39 +3964,35 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32365</v>
       </c>
-      <c r="B31" t="n">
-        <v>101157</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4364,10 +4000,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4388,37 +4024,36 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32365</v>
       </c>
-      <c r="B32" t="n">
-        <v>118084</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -4426,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4450,50 +4085,49 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32365</v>
       </c>
-      <c r="B33" t="n">
-        <v>118085</v>
-      </c>
-      <c r="C33" t="s">
-        <v>234</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4517,54 +4151,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32365</v>
       </c>
-      <c r="B34" t="n">
-        <v>118086</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4588,39 +4218,35 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32365</v>
       </c>
-      <c r="B35" t="n">
-        <v>118087</v>
-      </c>
-      <c r="C35" t="s">
-        <v>245</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4628,10 +4254,10 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4652,37 +4278,36 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32365</v>
       </c>
-      <c r="B36" t="n">
-        <v>118088</v>
-      </c>
-      <c r="C36" t="s">
-        <v>250</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4690,10 +4315,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="O36" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4714,52 +4339,51 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32365</v>
       </c>
-      <c r="B37" t="n">
-        <v>6533</v>
-      </c>
-      <c r="C37" t="s">
-        <v>255</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="J37" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="K37" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4777,39 +4401,35 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32365</v>
       </c>
-      <c r="B38" t="n">
-        <v>118089</v>
-      </c>
-      <c r="C38" t="s">
-        <v>262</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4817,10 +4437,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4841,37 +4461,36 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32365</v>
       </c>
-      <c r="B39" t="n">
-        <v>6571</v>
-      </c>
-      <c r="C39" t="s">
-        <v>267</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4879,10 +4498,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4903,37 +4522,36 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32365</v>
       </c>
-      <c r="B40" t="n">
-        <v>118090</v>
-      </c>
-      <c r="C40" t="s">
-        <v>271</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4941,10 +4559,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4965,6 +4583,9 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4976,22 +4597,22 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="J41" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4999,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5023,37 +4644,36 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32365</v>
       </c>
-      <c r="B42" t="n">
-        <v>118091</v>
-      </c>
-      <c r="C42" t="s">
-        <v>279</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="J42" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5061,10 +4681,10 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5085,37 +4705,36 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32365</v>
       </c>
-      <c r="B43" t="n">
-        <v>118092</v>
-      </c>
-      <c r="C43" t="s">
-        <v>284</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -5123,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5147,37 +4766,36 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32365</v>
       </c>
-      <c r="B44" t="n">
-        <v>118093</v>
-      </c>
-      <c r="C44" t="s">
-        <v>287</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="J44" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -5185,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5209,6 +4827,9 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5220,22 +4841,22 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5243,10 +4864,10 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5267,50 +4888,49 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32365</v>
       </c>
-      <c r="B46" t="n">
-        <v>23380</v>
-      </c>
-      <c r="C46" t="s">
-        <v>295</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="J46" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5332,54 +4952,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32365</v>
       </c>
-      <c r="B47" t="n">
-        <v>118088</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>260</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>261</v>
+      </c>
+      <c r="J47" t="s">
         <v>262</v>
       </c>
-      <c r="D47" t="n">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" t="s">
-        <v>300</v>
-      </c>
-      <c r="J47" t="s">
-        <v>301</v>
-      </c>
       <c r="K47" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5403,39 +5019,35 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32365</v>
       </c>
-      <c r="B48" t="n">
-        <v>118094</v>
-      </c>
-      <c r="C48" t="s">
-        <v>304</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="J48" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -5443,10 +5055,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5467,37 +5079,36 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32365</v>
       </c>
-      <c r="B49" t="n">
-        <v>118090</v>
-      </c>
-      <c r="C49" t="s">
-        <v>279</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="J49" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5505,10 +5116,10 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5529,37 +5140,36 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32365</v>
       </c>
-      <c r="B50" t="n">
-        <v>2710</v>
-      </c>
-      <c r="C50" t="s">
-        <v>311</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5567,10 +5177,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5591,52 +5201,51 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32365</v>
       </c>
-      <c r="B51" t="n">
-        <v>118095</v>
-      </c>
-      <c r="C51" t="s">
-        <v>314</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="J51" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5650,39 +5259,35 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32365</v>
       </c>
-      <c r="B52" t="n">
-        <v>118096</v>
-      </c>
-      <c r="C52" t="s">
-        <v>320</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="J52" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5690,10 +5295,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5714,37 +5319,36 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32365</v>
       </c>
-      <c r="B53" t="n">
-        <v>118097</v>
-      </c>
-      <c r="C53" t="s">
-        <v>324</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="J53" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5752,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5776,52 +5380,51 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32365</v>
       </c>
-      <c r="B54" t="n">
-        <v>69378</v>
-      </c>
-      <c r="C54" t="s">
-        <v>217</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="J54" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5845,54 +5448,50 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32365</v>
       </c>
-      <c r="B55" t="n">
-        <v>13965</v>
-      </c>
-      <c r="C55" t="s">
-        <v>334</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="K55" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5916,52 +5515,48 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32365</v>
       </c>
-      <c r="B56" t="n">
-        <v>118090</v>
-      </c>
-      <c r="C56" t="s">
-        <v>279</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J56" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5983,60 +5578,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="X56" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Y56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32365</v>
       </c>
-      <c r="B57" t="n">
-        <v>118098</v>
-      </c>
-      <c r="C57" t="s">
-        <v>346</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="J57" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="K57" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="O57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6058,51 +5649,47 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="X57" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Y57" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32365</v>
       </c>
-      <c r="B58" t="n">
-        <v>118099</v>
-      </c>
-      <c r="C58" t="s">
-        <v>353</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="J58" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="K58" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="L58" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -6129,60 +5716,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="X58" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Y58" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32365</v>
       </c>
-      <c r="B59" t="n">
-        <v>118100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>360</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="J59" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="K59" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="L59" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6206,39 +5789,35 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>32365</v>
       </c>
-      <c r="B60" t="n">
-        <v>3346</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="J60" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6246,10 +5825,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="O60" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6270,52 +5849,51 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32365</v>
       </c>
-      <c r="B61" t="n">
-        <v>181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>371</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="J61" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="K61" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="L61" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="O61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6339,39 +5917,35 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32365</v>
       </c>
-      <c r="B62" t="n">
-        <v>118101</v>
-      </c>
-      <c r="C62" t="s">
-        <v>377</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="J62" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6379,10 +5953,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="O62" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6403,52 +5977,51 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32365</v>
       </c>
-      <c r="B63" t="n">
-        <v>60040</v>
-      </c>
-      <c r="C63" t="s">
-        <v>381</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="J63" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="K63" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="L63" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6472,39 +6045,35 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32365</v>
       </c>
-      <c r="B64" t="n">
-        <v>44853</v>
-      </c>
-      <c r="C64" t="s">
-        <v>388</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="J64" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6512,10 +6081,10 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="O64" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6536,37 +6105,36 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32365</v>
       </c>
-      <c r="B65" t="n">
-        <v>32442</v>
-      </c>
-      <c r="C65" t="s">
-        <v>392</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="J65" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6574,10 +6142,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6590,37 +6158,36 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>32365</v>
       </c>
-      <c r="B66" t="n">
-        <v>32320</v>
-      </c>
-      <c r="C66" t="s">
-        <v>397</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="J66" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6628,10 +6195,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="O66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6652,50 +6219,49 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>32365</v>
       </c>
-      <c r="B67" t="n">
-        <v>47057</v>
-      </c>
-      <c r="C67" t="s">
-        <v>401</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="J67" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="O67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6715,54 +6281,50 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>32365</v>
       </c>
-      <c r="B68" t="n">
-        <v>118102</v>
-      </c>
-      <c r="C68" t="s">
-        <v>405</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="J68" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="K68" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="L68" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="O68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6786,39 +6348,35 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>32365</v>
       </c>
-      <c r="B69" t="n">
-        <v>325</v>
-      </c>
-      <c r="C69" t="s">
-        <v>412</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="J69" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6826,10 +6384,10 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6850,37 +6408,36 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>32365</v>
       </c>
-      <c r="B70" t="n">
-        <v>118103</v>
-      </c>
-      <c r="C70" t="s">
-        <v>416</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="J70" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6888,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="O70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6912,52 +6469,51 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>32365</v>
       </c>
-      <c r="B71" t="n">
-        <v>28892</v>
-      </c>
-      <c r="C71" t="s">
-        <v>421</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="J71" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="K71" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="L71" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="O71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6981,54 +6537,50 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>32365</v>
       </c>
-      <c r="B72" t="n">
-        <v>11310</v>
-      </c>
-      <c r="C72" t="s">
-        <v>427</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="J72" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="K72" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="L72" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7052,52 +6604,48 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>32365</v>
       </c>
-      <c r="B73" t="n">
-        <v>118104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>435</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="J73" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7121,54 +6669,50 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>32365</v>
       </c>
-      <c r="B74" t="n">
-        <v>118105</v>
-      </c>
-      <c r="C74" t="s">
-        <v>439</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="J74" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="K74" t="s">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="L74" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7192,7 +6736,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75">
@@ -7205,37 +6749,37 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="J75" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="K75" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="L75" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7259,54 +6803,50 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>32365</v>
       </c>
-      <c r="B76" t="n">
-        <v>118106</v>
-      </c>
-      <c r="C76" t="s">
-        <v>451</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="J76" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="K76" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7330,52 +6870,48 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>32365</v>
       </c>
-      <c r="B77" t="n">
-        <v>16694</v>
-      </c>
-      <c r="C77" t="s">
-        <v>457</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="J77" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7399,7 +6935,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
@@ -7412,22 +6948,22 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="J78" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7435,10 +6971,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7459,37 +6995,36 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>32365</v>
       </c>
-      <c r="B79" t="n">
-        <v>60543</v>
-      </c>
-      <c r="C79" t="s">
-        <v>464</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="J79" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7497,10 +7032,10 @@
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7521,37 +7056,36 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>32365</v>
       </c>
-      <c r="B80" t="n">
-        <v>22608</v>
-      </c>
-      <c r="C80" t="s">
-        <v>467</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="J80" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7559,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="O80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7583,37 +7117,36 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>32365</v>
       </c>
-      <c r="B81" t="n">
-        <v>7035</v>
-      </c>
-      <c r="C81" t="s">
-        <v>471</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="J81" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7621,10 +7154,10 @@
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7643,37 +7176,36 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>32365</v>
       </c>
-      <c r="B82" t="n">
-        <v>1363</v>
-      </c>
-      <c r="C82" t="s">
-        <v>476</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="J82" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7681,10 +7213,10 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7705,52 +7237,51 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>32365</v>
       </c>
-      <c r="B83" t="n">
-        <v>118107</v>
-      </c>
-      <c r="C83" t="s">
-        <v>480</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="J83" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="K83" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="L83" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O83" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7774,54 +7305,50 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>32365</v>
       </c>
-      <c r="B84" t="n">
-        <v>118108</v>
-      </c>
-      <c r="C84" t="s">
-        <v>486</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>488</v>
+        <v>418</v>
       </c>
       <c r="J84" t="s">
-        <v>489</v>
+        <v>419</v>
       </c>
       <c r="K84" t="s">
         <v>34</v>
       </c>
       <c r="L84" t="s">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7845,39 +7372,35 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>490</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>32365</v>
       </c>
-      <c r="B85" t="n">
-        <v>31269</v>
-      </c>
-      <c r="C85" t="s">
-        <v>491</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>493</v>
+        <v>422</v>
       </c>
       <c r="J85" t="s">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="K85" t="s"/>
       <c r="L85" t="s"/>
@@ -7885,10 +7408,10 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7909,37 +7432,36 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>32365</v>
       </c>
-      <c r="B86" t="n">
-        <v>118109</v>
-      </c>
-      <c r="C86" t="s">
-        <v>495</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="J86" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7947,10 +7469,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7971,37 +7493,36 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>32365</v>
       </c>
-      <c r="B87" t="n">
-        <v>6509</v>
-      </c>
-      <c r="C87" t="s">
-        <v>499</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="J87" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -8009,10 +7530,10 @@
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="O87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8033,43 +7554,42 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>32365</v>
       </c>
-      <c r="B88" t="n">
-        <v>118110</v>
-      </c>
-      <c r="C88" t="s">
-        <v>504</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="J88" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="K88" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="L88" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8098,45 +7618,41 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>32365</v>
       </c>
-      <c r="B89" t="n">
-        <v>118111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>510</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
       <c r="J89" t="s">
-        <v>513</v>
+        <v>438</v>
       </c>
       <c r="K89" t="s">
-        <v>514</v>
+        <v>439</v>
       </c>
       <c r="L89" t="s">
-        <v>515</v>
+        <v>440</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
@@ -8165,45 +7681,41 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>515</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>32365</v>
       </c>
-      <c r="B90" t="n">
-        <v>118112</v>
-      </c>
-      <c r="C90" t="s">
-        <v>516</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="J90" t="s">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="K90" t="s">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="L90" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -8232,52 +7744,48 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>32365</v>
       </c>
-      <c r="B91" t="n">
-        <v>118113</v>
-      </c>
-      <c r="C91" t="s">
-        <v>523</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>524</v>
+        <v>447</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>525</v>
+        <v>448</v>
       </c>
       <c r="J91" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="O91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8301,39 +7809,35 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>32365</v>
       </c>
-      <c r="B92" t="n">
-        <v>118114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>528</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>529</v>
+        <v>451</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="J92" t="s">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8341,10 +7845,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="O92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8365,37 +7869,36 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>32365</v>
       </c>
-      <c r="B93" t="n">
-        <v>51782</v>
-      </c>
-      <c r="C93" t="s">
-        <v>532</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>533</v>
+        <v>454</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>534</v>
+        <v>455</v>
       </c>
       <c r="J93" t="s">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8403,10 +7906,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="O93" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8427,52 +7930,51 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>32365</v>
       </c>
-      <c r="B94" t="n">
-        <v>118115</v>
-      </c>
-      <c r="C94" t="s">
-        <v>536</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="J94" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="K94" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="L94" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8494,45 +7996,41 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>543</v>
+        <v>463</v>
       </c>
       <c r="X94" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="Y94" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>32365</v>
       </c>
-      <c r="B95" t="n">
-        <v>118116</v>
-      </c>
-      <c r="C95" t="s">
-        <v>546</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="J95" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -8540,10 +8038,10 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8564,37 +8062,36 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>32365</v>
       </c>
-      <c r="B96" t="n">
-        <v>118117</v>
-      </c>
-      <c r="C96" t="s">
-        <v>549</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>550</v>
+        <v>468</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="J96" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8602,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O96" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8626,37 +8123,36 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>32365</v>
       </c>
-      <c r="B97" t="n">
-        <v>118108</v>
-      </c>
-      <c r="C97" t="s">
-        <v>495</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>553</v>
+        <v>471</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>554</v>
+        <v>472</v>
       </c>
       <c r="J97" t="s">
-        <v>555</v>
+        <v>473</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8664,10 +8160,10 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O97" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8688,37 +8184,36 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>32365</v>
       </c>
-      <c r="B98" t="n">
-        <v>156</v>
-      </c>
-      <c r="C98" t="s">
-        <v>556</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
       <c r="J98" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8726,10 +8221,10 @@
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O98" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8750,52 +8245,51 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>32365</v>
       </c>
-      <c r="B99" t="n">
-        <v>118118</v>
-      </c>
-      <c r="C99" t="s">
-        <v>560</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
       <c r="J99" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="K99" t="s">
-        <v>563</v>
+        <v>479</v>
       </c>
       <c r="L99" t="s">
-        <v>564</v>
+        <v>480</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8819,54 +8313,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>564</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>32365</v>
       </c>
-      <c r="B100" t="n">
-        <v>118119</v>
-      </c>
-      <c r="C100" t="s">
-        <v>565</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
       <c r="J100" t="s">
-        <v>568</v>
+        <v>483</v>
       </c>
       <c r="K100" t="s">
-        <v>569</v>
+        <v>484</v>
       </c>
       <c r="L100" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O100" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -8890,54 +8380,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>32365</v>
       </c>
-      <c r="B101" t="n">
-        <v>95930</v>
-      </c>
-      <c r="C101" t="s">
-        <v>571</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>572</v>
+        <v>486</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>573</v>
+        <v>487</v>
       </c>
       <c r="J101" t="s">
-        <v>574</v>
+        <v>488</v>
       </c>
       <c r="K101" t="s">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="L101" t="s">
-        <v>576</v>
+        <v>490</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="O101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8961,54 +8447,50 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>576</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>32365</v>
       </c>
-      <c r="B102" t="n">
-        <v>118096</v>
-      </c>
-      <c r="C102" t="s">
-        <v>324</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>577</v>
+        <v>491</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>578</v>
+        <v>492</v>
       </c>
       <c r="J102" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
       <c r="K102" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="L102" t="s">
-        <v>581</v>
+        <v>495</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="O102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9032,54 +8514,50 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>581</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>32365</v>
       </c>
-      <c r="B103" t="n">
-        <v>118120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>583</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>585</v>
+        <v>498</v>
       </c>
       <c r="J103" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
       <c r="K103" t="s">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="L103" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="O103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9103,54 +8581,50 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>32365</v>
       </c>
-      <c r="B104" t="n">
-        <v>118121</v>
-      </c>
-      <c r="C104" t="s">
-        <v>589</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>590</v>
+        <v>502</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>591</v>
+        <v>503</v>
       </c>
       <c r="J104" t="s">
-        <v>592</v>
+        <v>504</v>
       </c>
       <c r="K104" t="s">
-        <v>593</v>
+        <v>505</v>
       </c>
       <c r="L104" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>595</v>
+        <v>507</v>
       </c>
       <c r="O104" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9174,45 +8648,41 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>596</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>32365</v>
       </c>
-      <c r="B105" t="n">
-        <v>118122</v>
-      </c>
-      <c r="C105" t="s">
-        <v>597</v>
-      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="J105" t="s">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="K105" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="L105" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
@@ -9241,54 +8711,50 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>32365</v>
       </c>
-      <c r="B106" t="n">
-        <v>39742</v>
-      </c>
-      <c r="C106" t="s">
-        <v>603</v>
-      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="J106" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="K106" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="L106" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="O106" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9312,54 +8778,50 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>32365</v>
       </c>
-      <c r="B107" t="n">
-        <v>118123</v>
-      </c>
-      <c r="C107" t="s">
-        <v>610</v>
-      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>611</v>
+        <v>520</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
       <c r="J107" t="s">
-        <v>613</v>
+        <v>522</v>
       </c>
       <c r="K107" t="s">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="L107" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="O107" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9383,7 +8845,7 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
